--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\ictar\malta-phishing-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8426345C-B9A2-439A-BF85-CD03503FDBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851E95E-9508-49DD-AF24-06634357A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31815" yWindow="1305" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>shortened</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>lookalike</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>https://timesofmalta.com/articles/view/parcel-delivery-scams-at-least-20-people-a-day-are-falling-victim.879662</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,31 +493,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>44363</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -525,31 +525,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>44363</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -557,31 +557,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>44364</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -589,28 +589,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>44368</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851E95E-9508-49DD-AF24-06634357A926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A15CC-C476-4622-A8A2-5DE02A76A158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31815" yWindow="1305" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -36,9 +36,6 @@
     <t>added</t>
   </si>
   <si>
-    <t>SMS</t>
-  </si>
-  <si>
     <t>SocialMedia</t>
   </si>
   <si>
@@ -118,16 +115,39 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>https://www.maltapost.com/scamexamples</t>
+  </si>
+  <si>
+    <t>Official</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>failed delivery</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,14 +170,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -467,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -493,31 +517,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>44363</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -525,31 +549,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>44363</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -557,31 +581,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>44364</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -589,28 +613,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>44368</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -618,28 +642,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>44376</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -647,31 +671,400 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>44379</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A15CC-C476-4622-A8A2-5DE02A76A158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1433591-3312-4292-958C-2D567BDBF16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -130,24 +130,55 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>https://cybersecurity.gov.mt/whatsapp-scam-doing-the-rounds-in-malta/</t>
+  </si>
+  <si>
+    <t>https://bov.com/pjazza/cyber-clip</t>
+  </si>
+  <si>
+    <t>request for data update</t>
+  </si>
+  <si>
+    <t>2facode</t>
+  </si>
+  <si>
+    <t>request for 2facode</t>
+  </si>
+  <si>
+    <t>https://www.centralbankmalta.org/phishing-attempt-2021</t>
+  </si>
+  <si>
+    <t>atm card will be locked</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>won an iphone</t>
+  </si>
+  <si>
+    <t>https://www.melita.com/phishing-scam-targeting-melita-customers/</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cybersecuremt/photos/a.210609509405032/383009972164984/</t>
+  </si>
+  <si>
+    <t>account blocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,18 +201,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,7 +491,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +751,7 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -755,7 +783,7 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -787,7 +815,7 @@
       <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -819,7 +847,7 @@
       <c r="I11" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -851,7 +879,7 @@
       <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -883,7 +911,7 @@
       <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -915,7 +943,7 @@
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -947,7 +975,7 @@
       <c r="I15" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -979,7 +1007,7 @@
       <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1011,7 +1039,7 @@
       <c r="I17" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1019,29 +1047,161 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1433591-3312-4292-958C-2D567BDBF16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E180D-F6FB-4146-9DF2-61D5B77A3112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>account blocked</t>
+  </si>
+  <si>
+    <t>mailbox full, link to https://officcmail.weebly.com/</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>request for collaboration resulting in ransomware</t>
   </si>
 </sst>
 </file>
@@ -491,7 +500,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,11 +509,11 @@
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="105.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1207,10 +1216,58 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E180D-F6FB-4146-9DF2-61D5B77A3112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26FFC10-43E1-4F85-BD91-DEDF5A319E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>request for collaboration resulting in ransomware</t>
+  </si>
+  <si>
+    <t>https://bay.com.mt/lidl-supermarket-warns-customers-about-fake-voucher-scam/</t>
+  </si>
+  <si>
+    <t>win a voucher</t>
+  </si>
+  <si>
+    <t>win a gift</t>
+  </si>
+  <si>
+    <t>https://www.independent.com.mt/articles/2021-04-21/local-news/Toyota-Malta-warns-of-WhatsApp-scam-using-its-brand-name-6736232814</t>
   </si>
 </sst>
 </file>
@@ -500,7 +512,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,10 +1286,64 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26FFC10-43E1-4F85-BD91-DEDF5A319E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EF190B-141E-4834-961B-8A69BB117EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>https://www.independent.com.mt/articles/2021-04-21/local-news/Toyota-Malta-warns-of-WhatsApp-scam-using-its-brand-name-6736232814</t>
+  </si>
+  <si>
+    <t>https://cybersecurity.gov.mt/beware-of-the-netflix-phishing-scam/</t>
+  </si>
+  <si>
+    <t>update payment details for netflix</t>
   </si>
 </sst>
 </file>
@@ -509,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,6 +1352,38 @@
         <v>54</v>
       </c>
     </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EF190B-141E-4834-961B-8A69BB117EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21F86C0-4FAE-4747-B7AE-6CDB401045D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11970" yWindow="750" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>update payment details for netflix</t>
+  </si>
+  <si>
+    <t>https://timesofmalta.com/articles/view/scammers-conned-50000-from-40-people-in-one-day.881863</t>
+  </si>
+  <si>
+    <t>https://www.medirect.com.mt/updates/news/security-tips/what-is-smishing-and-how-can-it-be-avoided</t>
+  </si>
+  <si>
+    <t>Confirm number to continue using service</t>
   </si>
 </sst>
 </file>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,6 +729,9 @@
       <c r="I6" t="s">
         <v>9</v>
       </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1382,6 +1394,38 @@
       </c>
       <c r="J27" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44380</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21F86C0-4FAE-4747-B7AE-6CDB401045D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC4E84-275B-4286-BD7F-7339FC715011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11970" yWindow="750" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>https://timesofmalta.com/articles/view/new-hsbc-text-message-scam-circulating.880055</t>
   </si>
   <si>
-    <t>sms</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Confirm number to continue using service</t>
+  </si>
+  <si>
+    <t>msg</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +581,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>44363</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -605,7 +605,7 @@
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>44363</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -637,7 +637,7 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -645,13 +645,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <v>44364</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>44368</v>
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>44376</v>
@@ -730,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>44379</v>
@@ -767,16 +767,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>44379</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -791,7 +791,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -799,16 +799,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>44379</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
@@ -823,7 +823,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -831,16 +831,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>44379</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -855,7 +855,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -863,13 +863,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1">
         <v>44379</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -884,10 +884,10 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,16 +895,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
         <v>44379</v>
       </c>
       <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
@@ -919,7 +919,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -927,13 +927,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
         <v>44379</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -951,7 +951,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -959,13 +959,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1">
         <v>44379</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -983,7 +983,7 @@
         <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -991,13 +991,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1">
         <v>44379</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1015,7 +1015,7 @@
         <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1">
         <v>44379</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1047,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
         <v>44379</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -1073,13 +1073,13 @@
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,13 +1087,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>44379</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -1108,10 +1108,10 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1119,31 +1119,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1">
         <v>44379</v>
       </c>
       <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
       <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
         <v>38</v>
       </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1151,13 +1151,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
         <v>44379</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -1172,10 +1172,10 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1183,31 +1183,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <v>44379</v>
       </c>
       <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
       <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
         <v>42</v>
       </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>43</v>
-      </c>
-      <c r="J21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1215,13 +1215,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <v>44379</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
         <v>22</v>
@@ -1236,10 +1236,10 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>44379</v>
@@ -1268,7 +1268,7 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>44379</v>
@@ -1285,19 +1285,19 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
         <v>49</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1305,19 +1305,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>44379</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -1326,10 +1326,10 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1337,19 +1337,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D26" t="s">
         <v>26</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44379</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -1358,10 +1358,10 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
         <v>53</v>
-      </c>
-      <c r="J26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1369,16 +1369,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>44379</v>
       </c>
       <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
         <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -1390,10 +1390,10 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1401,13 +1401,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1">
         <v>44380</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -1422,10 +1422,10 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC4E84-275B-4286-BD7F-7339FC715011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D459A81-D755-47ED-9284-70A5DEB17C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11970" yWindow="750" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>msg</t>
+  </si>
+  <si>
+    <t>click to accept a packet</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,6 +1431,35 @@
         <v>57</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44380</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D459A81-D755-47ED-9284-70A5DEB17C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B87F9FE-105E-4BEF-B7D4-DC8962B8CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>click to accept a packet</t>
+  </si>
+  <si>
+    <t>click to see mature content</t>
+  </si>
+  <si>
+    <t>click to confirm delivery</t>
   </si>
 </sst>
 </file>
@@ -527,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,6 +1466,93 @@
         <v>60</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44380</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44380</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44380</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B87F9FE-105E-4BEF-B7D4-DC8962B8CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB1065-C6B1-45CB-B9AA-7986AF872608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -141,9 +141,6 @@
     <t>2facode</t>
   </si>
   <si>
-    <t>request for 2facode</t>
-  </si>
-  <si>
     <t>https://www.centralbankmalta.org/phishing-attempt-2021</t>
   </si>
   <si>
@@ -214,6 +211,57 @@
   </si>
   <si>
     <t>click to confirm delivery</t>
+  </si>
+  <si>
+    <t>request for 2fa code</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>DHL</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>MaltaPost</t>
+  </si>
+  <si>
+    <t>BOV,HSBC</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>BOV</t>
+  </si>
+  <si>
+    <t>CentralBank</t>
+  </si>
+  <si>
+    <t>Melita</t>
+  </si>
+  <si>
+    <t>MTA</t>
+  </si>
+  <si>
+    <t>ChinaUniversity</t>
+  </si>
+  <si>
+    <t>LIDL</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>MeDirect</t>
   </si>
 </sst>
 </file>
@@ -533,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +598,11 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="105.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,15 +631,18 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>44363</v>
@@ -614,15 +666,18 @@
         <v>21</v>
       </c>
       <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>44363</v>
@@ -646,15 +701,18 @@
         <v>21</v>
       </c>
       <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1">
         <v>44364</v>
@@ -678,10 +736,13 @@
         <v>24</v>
       </c>
       <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -709,13 +770,16 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>44376</v>
@@ -739,15 +803,18 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1">
         <v>44379</v>
@@ -770,8 +837,11 @@
       <c r="I7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -799,11 +869,14 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -831,11 +904,14 @@
       <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -863,16 +939,19 @@
       <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1">
         <v>44379</v>
@@ -895,16 +974,19 @@
       <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1">
         <v>44379</v>
@@ -927,16 +1009,19 @@
       <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1">
         <v>44379</v>
@@ -959,16 +1044,19 @@
       <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1">
         <v>44379</v>
@@ -991,16 +1079,19 @@
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>44379</v>
@@ -1023,16 +1114,19 @@
       <c r="I15" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1">
         <v>44379</v>
@@ -1055,16 +1149,19 @@
       <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1">
         <v>44379</v>
@@ -1087,11 +1184,14 @@
       <c r="I17" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1120,15 +1220,18 @@
         <v>36</v>
       </c>
       <c r="J18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1">
         <v>44379</v>
@@ -1149,18 +1252,21 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1">
         <v>44379</v>
@@ -1181,13 +1287,16 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1204,27 +1313,30 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
         <v>42</v>
       </c>
-      <c r="J21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>44379</v>
@@ -1245,13 +1357,16 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1277,10 +1392,13 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1297,24 +1415,27 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
         <v>48</v>
       </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1">
         <v>44379</v>
@@ -1326,7 +1447,7 @@
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -1335,18 +1456,21 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1">
         <v>44379</v>
@@ -1358,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>20</v>
@@ -1367,13 +1491,16 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" t="s">
         <v>52</v>
       </c>
-      <c r="J26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1399,18 +1526,21 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1">
         <v>44380</v>
@@ -1431,18 +1561,21 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="K28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>44380</v>
@@ -1463,15 +1596,18 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1">
         <v>44380</v>
@@ -1483,7 +1619,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -1492,15 +1628,18 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1">
         <v>44380</v>
@@ -1521,15 +1660,18 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1">
         <v>44380</v>
@@ -1550,7 +1692,10 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CB1065-C6B1-45CB-B9AA-7986AF872608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B6408-7755-43E5-BA84-36FACC2F724B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -72,9 +72,6 @@
     <t>tax refund</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>shortened</t>
   </si>
   <si>
@@ -262,6 +259,12 @@
   </si>
   <si>
     <t>MeDirect</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>moreinfo</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -631,10 +634,10 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -642,34 +645,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>44363</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -677,34 +680,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1">
         <v>44363</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -712,34 +715,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>44364</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -747,31 +750,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>44368</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -779,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>44376</v>
@@ -788,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -803,10 +806,10 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -814,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1">
         <v>44379</v>
@@ -823,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -838,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -846,34 +849,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44379</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -881,34 +884,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44379</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -916,34 +919,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44379</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -951,34 +954,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1">
         <v>44379</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -986,34 +989,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>44379</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1021,34 +1024,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1">
         <v>44379</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1056,34 +1059,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>44379</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
-      </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1091,19 +1094,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1">
         <v>44379</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1112,13 +1115,13 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1126,34 +1129,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1">
         <v>44379</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
         <v>20</v>
       </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1161,34 +1164,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1">
         <v>44379</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1196,34 +1199,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>44379</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1231,34 +1234,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1">
         <v>44379</v>
       </c>
       <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1266,34 +1269,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1">
         <v>44379</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1301,34 +1304,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>44379</v>
       </c>
       <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
       <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
         <v>40</v>
       </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" t="s">
         <v>41</v>
-      </c>
-      <c r="J21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1336,34 +1339,34 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>44379</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1371,31 +1374,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>44379</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1403,31 +1406,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>44379</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
         <v>47</v>
       </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1435,34 +1438,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
         <v>44379</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1470,34 +1473,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1">
         <v>44379</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
       </c>
       <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s">
         <v>51</v>
-      </c>
-      <c r="J26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1505,34 +1508,34 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>44379</v>
       </c>
       <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
         <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1540,34 +1543,34 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1">
         <v>44380</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1575,19 +1578,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1">
         <v>44380</v>
       </c>
       <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
         <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>19</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1596,10 +1599,10 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1607,19 +1610,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
         <v>44380</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -1628,10 +1631,10 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1639,19 +1642,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1">
         <v>44380</v>
       </c>
       <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
         <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -1660,10 +1663,10 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1671,16 +1674,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1">
         <v>44380</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
@@ -1692,10 +1695,10 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B6408-7755-43E5-BA84-36FACC2F724B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2B8E0A-8E3B-4C0B-B5B0-FC95AE13D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>moreinfo</t>
+  </si>
+  <si>
+    <t>delivery payment with Deadline</t>
+  </si>
+  <si>
+    <t>parcel sent, click to complete process</t>
   </si>
 </sst>
 </file>
@@ -584,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1677,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -1699,6 +1705,70 @@
       </c>
       <c r="J32" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44380</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44380</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2B8E0A-8E3B-4C0B-B5B0-FC95AE13D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B58C03-389F-4607-83FF-0FD5181C24E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>banking account locked due to suspicious activity</t>
   </si>
   <si>
-    <t>language</t>
-  </si>
-  <si>
     <t>personalised</t>
   </si>
   <si>
@@ -271,14 +268,25 @@
   </si>
   <si>
     <t>parcel sent, click to complete process</t>
+  </si>
+  <si>
+    <t>lang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -306,10 +314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +602,8 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,46 +614,46 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="130.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -651,34 +661,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>44363</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -686,34 +696,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1">
         <v>44363</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -721,34 +731,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
         <v>44364</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -756,31 +766,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>44368</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -788,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>44376</v>
@@ -797,25 +807,25 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -823,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>44379</v>
@@ -832,22 +842,22 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,34 +865,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44379</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -890,34 +900,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44379</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -925,34 +935,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44379</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44379</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -960,34 +970,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>44379</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -995,34 +1005,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>44379</v>
       </c>
       <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1030,34 +1040,34 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>44379</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1065,34 +1075,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1">
         <v>44379</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1100,34 +1110,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1">
         <v>44379</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1135,34 +1145,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
         <v>44379</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
         <v>19</v>
       </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
-      </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1170,34 +1180,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1">
         <v>44379</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1205,34 +1215,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>44379</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1240,34 +1250,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>44379</v>
       </c>
       <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1275,34 +1285,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>44379</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1310,34 +1320,34 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>44379</v>
       </c>
       <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
       <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
         <v>39</v>
       </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" t="s">
         <v>40</v>
-      </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1345,34 +1355,34 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1">
         <v>44379</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1380,31 +1390,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <v>44379</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1412,31 +1422,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1">
         <v>44379</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
         <v>46</v>
       </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
       <c r="J24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1444,34 +1454,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1">
         <v>44379</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1479,34 +1489,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1">
         <v>44379</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" t="s">
         <v>50</v>
-      </c>
-      <c r="J26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1514,34 +1524,34 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <v>44379</v>
       </c>
       <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
         <v>29</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1549,34 +1559,34 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1">
         <v>44380</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,31 +1594,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1">
         <v>44380</v>
       </c>
       <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1616,31 +1626,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>44380</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1648,31 +1658,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1">
         <v>44380</v>
       </c>
       <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
         <v>17</v>
       </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1680,31 +1690,31 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1">
         <v>44380</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1712,31 +1722,31 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1">
         <v>44380</v>
       </c>
       <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
         <v>17</v>
       </c>
-      <c r="E33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1744,31 +1754,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1">
         <v>44380</v>
       </c>
       <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
         <v>17</v>
       </c>
-      <c r="E34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B58C03-389F-4607-83FF-0FD5181C24E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3B658-7F35-4357-979B-5E2FEC498F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>lang</t>
+  </si>
+  <si>
+    <t>https://timesofmalta.com/articles/view/maltapost-warns-customers-about-text-message-scam.862923</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1070,7 @@
         <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3B658-7F35-4357-979B-5E2FEC498F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92087810-8290-48D3-8E69-1974040F92F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$35</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -602,11 +605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -1784,7 +1787,40 @@
         <v>62</v>
       </c>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44382</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92087810-8290-48D3-8E69-1974040F92F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FD2AA-B205-4F79-9A34-87B5ED34BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10470" yWindow="-615" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>https://timesofmalta.com/articles/view/maltapost-warns-customers-about-text-message-scam.862923</t>
+  </si>
+  <si>
+    <t>confirm address for postal delivery</t>
   </si>
 </sst>
 </file>
@@ -605,11 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,6 +1822,70 @@
         <v>65</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44383</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44383</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392FD2AA-B205-4F79-9A34-87B5ED34BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B67511-F063-47B8-BDAD-1EACD5D71150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10470" yWindow="-615" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>confirm address for postal delivery</t>
+  </si>
+  <si>
+    <t>number changed, report if not recognised</t>
   </si>
 </sst>
 </file>
@@ -608,11 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -1726,7 +1729,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1884,6 +1887,41 @@
       </c>
       <c r="J37" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44384</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B67511-F063-47B8-BDAD-1EACD5D71150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0266510-822B-4DDC-9A57-1052C20E00C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -611,11 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,7 +1897,7 @@
         <v>56</v>
       </c>
       <c r="C38" s="1">
-        <v>44384</v>
+        <v>44383</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
@@ -1924,8 +1924,40 @@
         <v>53</v>
       </c>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44384</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0266510-822B-4DDC-9A57-1052C20E00C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED32684-D426-4D99-8A34-B4740BF82E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>number changed, report if not recognised</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Facebook Security cred stealing</t>
+  </si>
+  <si>
+    <t>New device used</t>
   </si>
 </sst>
 </file>
@@ -611,11 +620,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,8 +1965,104 @@
         <v>62</v>
       </c>
     </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44384</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44384</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44384</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED32684-D426-4D99-8A34-B4740BF82E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E5D1D-E715-45F3-BF52-C08E8335B293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>New device used</t>
+  </si>
+  <si>
+    <t>https://timesofmalta.com/articles/view/new-scam-mimics-government-website.884965</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,6 +883,9 @@
       <c r="J7" t="s">
         <v>67</v>
       </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629E5D1D-E715-45F3-BF52-C08E8335B293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6486F8C2-01B2-4361-8B18-FEF11B3136E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>https://timesofmalta.com/articles/view/new-scam-mimics-government-website.884965</t>
+  </si>
+  <si>
+    <t>failed delivery to to missed payment</t>
   </si>
 </sst>
 </file>
@@ -623,11 +626,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +684,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -715,7 +719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -750,7 +754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -817,7 +821,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -852,7 +856,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -992,7 +996,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1097,7 +1101,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1444,7 +1448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1616,7 +1620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1712,7 +1716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1840,7 +1844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2067,8 +2071,51 @@
         <v>68</v>
       </c>
     </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44384</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K42" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="email"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="MaltaPost"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6486F8C2-01B2-4361-8B18-FEF11B3136E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC222C8F-C9BD-426E-9FC5-36B5AAB8CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>failed delivery to to missed payment</t>
+  </si>
+  <si>
+    <t>busines opportunity</t>
+  </si>
+  <si>
+    <t>Lombard</t>
   </si>
 </sst>
 </file>
@@ -627,11 +633,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,6 +2109,38 @@
         <v>65</v>
       </c>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44384</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K42" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC222C8F-C9BD-426E-9FC5-36B5AAB8CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D9DF7-317A-4A79-B442-C324DC567775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$44</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -632,12 +632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="A41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +689,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -725,7 +724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -760,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -827,7 +826,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -862,7 +861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1882,7 +1881,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1914,7 +1913,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2027,25 +2026,25 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2109,51 +2108,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44384</v>
-      </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" t="s">
-        <v>90</v>
-      </c>
-      <c r="J44" t="s">
-        <v>91</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K42" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="email"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="MaltaPost"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D9DF7-317A-4A79-B442-C324DC567775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE220177-E7FD-4B4B-ACA6-0F0F850E3815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Lombard</t>
+  </si>
+  <si>
+    <t>personalised payment request for postal delivery</t>
+  </si>
+  <si>
+    <t>https://timesofmalta.com/articles/view/parcel-delivery-scammers-targeting-people-with-personalised-messages.882985</t>
   </si>
 </sst>
 </file>
@@ -632,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="A41:J41"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,6 +2114,41 @@
         <v>65</v>
       </c>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44384</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE220177-E7FD-4B4B-ACA6-0F0F850E3815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428BFDA-78C3-487E-A578-2F822F4E27C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -638,29 +638,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="130.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,7 +695,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -800,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -902,7 +902,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -937,7 +937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -972,7 +972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2147,6 +2147,38 @@
       </c>
       <c r="K44" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44416</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8428BFDA-78C3-487E-A578-2F822F4E27C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3B1C4-6E75-45BD-8879-3F8EFA0D127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>https://timesofmalta.com/articles/view/parcel-delivery-scammers-targeting-people-with-personalised-messages.882985</t>
+  </si>
+  <si>
+    <t>GO,Melita</t>
+  </si>
+  <si>
+    <t>refund from telecoms</t>
+  </si>
+  <si>
+    <t>redirects to https://doctorbrew.pl/wp-admin/user/-/</t>
   </si>
 </sst>
 </file>
@@ -638,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,9 +892,6 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
@@ -2179,6 +2185,41 @@
       </c>
       <c r="J45" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44416</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3B1C4-6E75-45BD-8879-3F8EFA0D127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75C5ED2-7EDC-4F74-A435-EEDE63A5E7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>redirects to https://doctorbrew.pl/wp-admin/user/-/</t>
+  </si>
+  <si>
+    <t>click to accept a packet, proper maltese fonts</t>
   </si>
 </sst>
 </file>
@@ -647,29 +650,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
-    <col min="11" max="11" width="130.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="130.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,7 +707,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -739,7 +742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -774,7 +777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -809,7 +812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -841,7 +844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -876,7 +879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -908,7 +911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -943,7 +946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -978,7 +981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1328,7 +1331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1669,7 +1672,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2088,7 +2091,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2220,6 +2223,38 @@
       </c>
       <c r="K46" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44416</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>97</v>
+      </c>
+      <c r="J47" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75C5ED2-7EDC-4F74-A435-EEDE63A5E7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45963EA-CC83-4EBA-8CD6-559B82F9FDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -322,12 +322,24 @@
   </si>
   <si>
     <t>click to accept a packet, proper maltese fonts</t>
+  </si>
+  <si>
+    <t>get a free covid kit</t>
+  </si>
+  <si>
+    <t>redirects to https://www.restaurant-apron.at/wp-admin/network/-/</t>
+  </si>
+  <si>
+    <t>delivery payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -367,9 +379,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,38 +684,38 @@
     <col min="11" max="11" width="130.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
@@ -714,7 +726,7 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>44363</v>
       </c>
       <c r="D2" t="s">
@@ -749,7 +761,7 @@
       <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>44363</v>
       </c>
       <c r="D3" t="s">
@@ -784,7 +796,7 @@
       <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>44364</v>
       </c>
       <c r="D4" t="s">
@@ -819,7 +831,7 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>44368</v>
       </c>
       <c r="D5" t="s">
@@ -851,7 +863,7 @@
       <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>44376</v>
       </c>
       <c r="D6" t="s">
@@ -886,7 +898,7 @@
       <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>44379</v>
       </c>
       <c r="D7" t="s">
@@ -918,7 +930,7 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>44379</v>
       </c>
       <c r="D8" t="s">
@@ -942,7 +954,7 @@
       <c r="J8" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -953,7 +965,7 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>44379</v>
       </c>
       <c r="D9" t="s">
@@ -977,7 +989,7 @@
       <c r="J9" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -988,7 +1000,7 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>44379</v>
       </c>
       <c r="D10" t="s">
@@ -1012,7 +1024,7 @@
       <c r="J10" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1023,7 +1035,7 @@
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>44379</v>
       </c>
       <c r="D11" t="s">
@@ -1047,7 +1059,7 @@
       <c r="J11" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1058,7 +1070,7 @@
       <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>44379</v>
       </c>
       <c r="D12" t="s">
@@ -1082,7 +1094,7 @@
       <c r="J12" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1093,7 +1105,7 @@
       <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>44379</v>
       </c>
       <c r="D13" t="s">
@@ -1117,7 +1129,7 @@
       <c r="J13" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1128,7 +1140,7 @@
       <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>44379</v>
       </c>
       <c r="D14" t="s">
@@ -1152,7 +1164,7 @@
       <c r="J14" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1163,7 +1175,7 @@
       <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>44379</v>
       </c>
       <c r="D15" t="s">
@@ -1187,7 +1199,7 @@
       <c r="J15" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1198,7 +1210,7 @@
       <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>44379</v>
       </c>
       <c r="D16" t="s">
@@ -1222,7 +1234,7 @@
       <c r="J16" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1233,7 +1245,7 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>44379</v>
       </c>
       <c r="D17" t="s">
@@ -1257,7 +1269,7 @@
       <c r="J17" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1268,7 +1280,7 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>44379</v>
       </c>
       <c r="D18" t="s">
@@ -1303,7 +1315,7 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>44379</v>
       </c>
       <c r="D19" t="s">
@@ -1338,7 +1350,7 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>44379</v>
       </c>
       <c r="D20" t="s">
@@ -1373,7 +1385,7 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>44379</v>
       </c>
       <c r="D21" t="s">
@@ -1408,7 +1420,7 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>44379</v>
       </c>
       <c r="D22" t="s">
@@ -1443,7 +1455,7 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>44379</v>
       </c>
       <c r="D23" t="s">
@@ -1475,7 +1487,7 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>44379</v>
       </c>
       <c r="D24" t="s">
@@ -1507,7 +1519,7 @@
       <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>44379</v>
       </c>
       <c r="D25" t="s">
@@ -1542,7 +1554,7 @@
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>44379</v>
       </c>
       <c r="D26" t="s">
@@ -1577,7 +1589,7 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>44379</v>
       </c>
       <c r="D27" t="s">
@@ -1612,7 +1624,7 @@
       <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>44380</v>
       </c>
       <c r="D28" t="s">
@@ -1647,7 +1659,7 @@
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>44380</v>
       </c>
       <c r="D29" t="s">
@@ -1679,7 +1691,7 @@
       <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>44380</v>
       </c>
       <c r="D30" t="s">
@@ -1711,7 +1723,7 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>44380</v>
       </c>
       <c r="D31" t="s">
@@ -1743,7 +1755,7 @@
       <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>44380</v>
       </c>
       <c r="D32" t="s">
@@ -1775,7 +1787,7 @@
       <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>44380</v>
       </c>
       <c r="D33" t="s">
@@ -1807,7 +1819,7 @@
       <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>44380</v>
       </c>
       <c r="D34" t="s">
@@ -1839,7 +1851,7 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>44382</v>
       </c>
       <c r="D35" t="s">
@@ -1871,7 +1883,7 @@
       <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>44383</v>
       </c>
       <c r="D36" t="s">
@@ -1903,7 +1915,7 @@
       <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>44383</v>
       </c>
       <c r="D37" t="s">
@@ -1935,7 +1947,7 @@
       <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>44383</v>
       </c>
       <c r="D38" t="s">
@@ -1970,7 +1982,7 @@
       <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>44384</v>
       </c>
       <c r="D39" t="s">
@@ -2002,7 +2014,7 @@
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>44384</v>
       </c>
       <c r="D40" t="s">
@@ -2034,7 +2046,7 @@
       <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>44384</v>
       </c>
       <c r="D41" t="s">
@@ -2066,7 +2078,7 @@
       <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="3">
         <v>44384</v>
       </c>
       <c r="D42" t="s">
@@ -2098,7 +2110,7 @@
       <c r="B43" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="3">
         <v>44384</v>
       </c>
       <c r="D43" t="s">
@@ -2130,7 +2142,7 @@
       <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="3">
         <v>44384</v>
       </c>
       <c r="D44" t="s">
@@ -2165,8 +2177,8 @@
       <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="1">
-        <v>44416</v>
+      <c r="C45" s="3">
+        <v>44385</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
@@ -2197,8 +2209,8 @@
       <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="1">
-        <v>44416</v>
+      <c r="C46" s="3">
+        <v>44385</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
@@ -2227,13 +2239,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="1">
-        <v>44416</v>
+      <c r="C47" s="3">
+        <v>44385</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
@@ -2255,6 +2267,73 @@
       </c>
       <c r="J47" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44389</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44389</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45963EA-CC83-4EBA-8CD6-559B82F9FDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A0216-4E10-4869-80E2-386A87C6270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>delivery payment</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>Verify to avoid lockout</t>
+  </si>
+  <si>
+    <t>redirects to https://officehotmail2021.weebly.com/</t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -377,11 +386,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,11 +672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2314,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2334,6 +2344,41 @@
       </c>
       <c r="J49" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="4">
+        <v>44390</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A0216-4E10-4869-80E2-386A87C6270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F7616-91A5-499C-B2B3-704C7CD134FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>redirects to https://officehotmail2021.weebly.com/</t>
+  </si>
+  <si>
+    <t>redirects to https://watson.pe/onlineBov/</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -390,8 +393,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,18 +675,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -701,7 +704,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -736,7 +739,7 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>44363</v>
       </c>
       <c r="D2" t="s">
@@ -771,7 +774,7 @@
       <c r="B3" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>44363</v>
       </c>
       <c r="D3" t="s">
@@ -806,7 +809,7 @@
       <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>44364</v>
       </c>
       <c r="D4" t="s">
@@ -841,7 +844,7 @@
       <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>44368</v>
       </c>
       <c r="D5" t="s">
@@ -873,7 +876,7 @@
       <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>44376</v>
       </c>
       <c r="D6" t="s">
@@ -908,7 +911,7 @@
       <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>44379</v>
       </c>
       <c r="D7" t="s">
@@ -940,7 +943,7 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>44379</v>
       </c>
       <c r="D8" t="s">
@@ -975,7 +978,7 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>44379</v>
       </c>
       <c r="D9" t="s">
@@ -1010,7 +1013,7 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>44379</v>
       </c>
       <c r="D10" t="s">
@@ -1045,7 +1048,7 @@
       <c r="B11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>44379</v>
       </c>
       <c r="D11" t="s">
@@ -1080,7 +1083,7 @@
       <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>44379</v>
       </c>
       <c r="D12" t="s">
@@ -1115,7 +1118,7 @@
       <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>44379</v>
       </c>
       <c r="D13" t="s">
@@ -1150,7 +1153,7 @@
       <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>44379</v>
       </c>
       <c r="D14" t="s">
@@ -1185,7 +1188,7 @@
       <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>44379</v>
       </c>
       <c r="D15" t="s">
@@ -1220,7 +1223,7 @@
       <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>44379</v>
       </c>
       <c r="D16" t="s">
@@ -1255,7 +1258,7 @@
       <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>44379</v>
       </c>
       <c r="D17" t="s">
@@ -1290,7 +1293,7 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>44379</v>
       </c>
       <c r="D18" t="s">
@@ -1325,7 +1328,7 @@
       <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>44379</v>
       </c>
       <c r="D19" t="s">
@@ -1360,7 +1363,7 @@
       <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>44379</v>
       </c>
       <c r="D20" t="s">
@@ -1395,7 +1398,7 @@
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>44379</v>
       </c>
       <c r="D21" t="s">
@@ -1430,7 +1433,7 @@
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>44379</v>
       </c>
       <c r="D22" t="s">
@@ -1465,7 +1468,7 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>44379</v>
       </c>
       <c r="D23" t="s">
@@ -1497,7 +1500,7 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>44379</v>
       </c>
       <c r="D24" t="s">
@@ -1529,7 +1532,7 @@
       <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>44379</v>
       </c>
       <c r="D25" t="s">
@@ -1564,7 +1567,7 @@
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>44379</v>
       </c>
       <c r="D26" t="s">
@@ -1599,7 +1602,7 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>44379</v>
       </c>
       <c r="D27" t="s">
@@ -1634,7 +1637,7 @@
       <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>44380</v>
       </c>
       <c r="D28" t="s">
@@ -1669,7 +1672,7 @@
       <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>44380</v>
       </c>
       <c r="D29" t="s">
@@ -1701,7 +1704,7 @@
       <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>44380</v>
       </c>
       <c r="D30" t="s">
@@ -1733,7 +1736,7 @@
       <c r="B31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>44380</v>
       </c>
       <c r="D31" t="s">
@@ -1765,7 +1768,7 @@
       <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>44380</v>
       </c>
       <c r="D32" t="s">
@@ -1797,7 +1800,7 @@
       <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>44380</v>
       </c>
       <c r="D33" t="s">
@@ -1829,7 +1832,7 @@
       <c r="B34" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>44380</v>
       </c>
       <c r="D34" t="s">
@@ -1861,7 +1864,7 @@
       <c r="B35" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>44382</v>
       </c>
       <c r="D35" t="s">
@@ -1893,7 +1896,7 @@
       <c r="B36" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>44383</v>
       </c>
       <c r="D36" t="s">
@@ -1925,7 +1928,7 @@
       <c r="B37" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>44383</v>
       </c>
       <c r="D37" t="s">
@@ -1957,7 +1960,7 @@
       <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>44383</v>
       </c>
       <c r="D38" t="s">
@@ -1992,7 +1995,7 @@
       <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>44384</v>
       </c>
       <c r="D39" t="s">
@@ -2024,7 +2027,7 @@
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>44384</v>
       </c>
       <c r="D40" t="s">
@@ -2056,7 +2059,7 @@
       <c r="B41" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>44384</v>
       </c>
       <c r="D41" t="s">
@@ -2088,7 +2091,7 @@
       <c r="B42" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>44384</v>
       </c>
       <c r="D42" t="s">
@@ -2120,7 +2123,7 @@
       <c r="B43" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>44384</v>
       </c>
       <c r="D43" t="s">
@@ -2152,7 +2155,7 @@
       <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>44384</v>
       </c>
       <c r="D44" t="s">
@@ -2187,7 +2190,7 @@
       <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>44385</v>
       </c>
       <c r="D45" t="s">
@@ -2219,7 +2222,7 @@
       <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>44385</v>
       </c>
       <c r="D46" t="s">
@@ -2254,7 +2257,7 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>44385</v>
       </c>
       <c r="D47" t="s">
@@ -2286,7 +2289,7 @@
       <c r="B48" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>44389</v>
       </c>
       <c r="D48" t="s">
@@ -2321,7 +2324,7 @@
       <c r="B49" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>44389</v>
       </c>
       <c r="D49" t="s">
@@ -2381,8 +2384,43 @@
         <v>103</v>
       </c>
     </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44391</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K44" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F7616-91A5-499C-B2B3-704C7CD134FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF1FE47-71E8-487F-B22A-32E822785FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>redirects to https://watson.pe/onlineBov/</t>
+  </si>
+  <si>
+    <t>Account reset</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -393,8 +396,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,6 +2422,38 @@
         <v>104</v>
       </c>
     </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="4">
+        <v>44403</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF1FE47-71E8-487F-B22A-32E822785FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4537D3F-A75D-4E30-A06E-89013AF869B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Account reset</t>
+  </si>
+  <si>
+    <t>Account suspended</t>
   </si>
 </sst>
 </file>
@@ -678,11 +681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,6 +2457,38 @@
         <v>68</v>
       </c>
     </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44403</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+      <c r="J53" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4537D3F-A75D-4E30-A06E-89013AF869B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8674B-F094-44F9-A4A4-D84D8BE9A304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t>Account suspended</t>
+  </si>
+  <si>
+    <t>delivery issue</t>
+  </si>
+  <si>
+    <t>Customs</t>
+  </si>
+  <si>
+    <t>https://timesofmalta.com/articles/view/customs-department-warns-people-about-email-scam.887101</t>
   </si>
 </sst>
 </file>
@@ -681,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,6 +2498,41 @@
         <v>68</v>
       </c>
     </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="4">
+        <v>44403</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J54" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A8674B-F094-44F9-A4A4-D84D8BE9A304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC06848-A367-4613-BD59-10CDCF44FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -318,18 +318,12 @@
     <t>refund from telecoms</t>
   </si>
   <si>
-    <t>redirects to https://doctorbrew.pl/wp-admin/user/-/</t>
-  </si>
-  <si>
     <t>click to accept a packet, proper maltese fonts</t>
   </si>
   <si>
     <t>get a free covid kit</t>
   </si>
   <si>
-    <t>redirects to https://www.restaurant-apron.at/wp-admin/network/-/</t>
-  </si>
-  <si>
     <t>delivery payment</t>
   </si>
   <si>
@@ -339,12 +333,6 @@
     <t>Verify to avoid lockout</t>
   </si>
   <si>
-    <t>redirects to https://officehotmail2021.weebly.com/</t>
-  </si>
-  <si>
-    <t>redirects to https://watson.pe/onlineBov/</t>
-  </si>
-  <si>
     <t>Account reset</t>
   </si>
   <si>
@@ -358,6 +346,30 @@
   </si>
   <si>
     <t>https://timesofmalta.com/articles/view/customs-department-warns-people-about-email-scam.887101</t>
+  </si>
+  <si>
+    <t>buy covid passport</t>
+  </si>
+  <si>
+    <t>https://doctorbrew.pl/wp-admin/user/-/</t>
+  </si>
+  <si>
+    <t>https://www.restaurant-apron.at/wp-admin/network/-/</t>
+  </si>
+  <si>
+    <t>https://officehotmail2021.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://watson.pe/onlineBov/</t>
+  </si>
+  <si>
+    <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/story.php?story_fbid=4377523138997877&amp;id=488536334563263</t>
+  </si>
+  <si>
+    <t>redirectsto</t>
   </si>
 </sst>
 </file>
@@ -690,29 +702,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K55" sqref="K55"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="130.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="122.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="91.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -746,8 +761,11 @@
       <c r="K1" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -782,7 +800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -817,7 +835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -852,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -884,7 +902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -919,7 +937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -951,7 +969,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1021,7 +1039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1056,7 +1074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1126,7 +1144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1231,7 +1249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1266,7 +1284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1301,7 +1319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1336,7 +1354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1371,7 +1389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1406,7 +1424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1508,7 +1526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1575,7 +1593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1645,7 +1663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1680,7 +1698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1712,7 +1730,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1744,7 +1762,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1840,7 +1858,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1872,7 +1890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1904,7 +1922,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1936,7 +1954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1968,7 +1986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2003,7 +2021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2099,7 +2117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2131,7 +2149,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2163,7 +2181,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2230,7 +2248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2261,11 +2279,11 @@
       <c r="J46" t="s">
         <v>94</v>
       </c>
-      <c r="K46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2291,13 +2309,13 @@
         <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2323,16 +2341,16 @@
         <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J48" t="s">
         <v>67</v>
       </c>
-      <c r="K48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2358,18 +2376,18 @@
         <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" s="4">
         <v>44390</v>
@@ -2390,16 +2408,16 @@
         <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J50" t="s">
         <v>16</v>
       </c>
-      <c r="K50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2425,16 +2443,16 @@
         <v>11</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J51" t="s">
         <v>68</v>
       </c>
-      <c r="K51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2460,13 +2478,13 @@
         <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2492,13 +2510,13 @@
         <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2524,13 +2542,51 @@
         <v>11</v>
       </c>
       <c r="I54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K54" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44408</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" t="s">
+        <v>112</v>
+      </c>
+      <c r="L55" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC06848-A367-4613-BD59-10CDCF44FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190845DC-7CF8-4CC7-AF86-B9CC36DBE6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="116">
   <si>
     <t>id</t>
   </si>
@@ -354,9 +354,6 @@
     <t>https://doctorbrew.pl/wp-admin/user/-/</t>
   </si>
   <si>
-    <t>https://www.restaurant-apron.at/wp-admin/network/-/</t>
-  </si>
-  <si>
     <t>https://officehotmail2021.weebly.com/</t>
   </si>
   <si>
@@ -370,6 +367,16 @@
   </si>
   <si>
     <t>redirectsto</t>
+  </si>
+  <si>
+    <t>https://www.restaurant-apron.at/wp-admin/network/-/
+https://certifikatvaccin-gov-mt-sophiechappot211321.codeanyapp.com/mtxx/</t>
+  </si>
+  <si>
+    <t>https://trackingmalta.pro/BOV/bov/bov/</t>
+  </si>
+  <si>
+    <t>https://tcpros.co/QDYsV</t>
   </si>
 </sst>
 </file>
@@ -416,12 +423,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,29 +715,29 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
-    <col min="11" max="11" width="122.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="91.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="122.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="91.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,10 +772,10 @@
         <v>78</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -800,7 +810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -835,7 +845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -870,7 +880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -902,7 +912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -937,7 +947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -969,7 +979,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1039,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1074,7 +1084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1109,7 +1119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1144,7 +1154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1248,8 +1258,11 @@
       <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1284,7 +1297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1319,7 +1332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1354,7 +1367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1389,7 +1402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1459,7 +1472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1526,7 +1539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1558,7 +1571,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1593,7 +1606,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1628,7 +1641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1663,7 +1676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1698,7 +1711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1762,7 +1775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1794,7 +1807,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1825,8 +1838,11 @@
       <c r="J32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1858,7 +1874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1890,7 +1906,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1922,7 +1938,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1954,7 +1970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1986,7 +2002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2021,7 +2037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2053,7 +2069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2085,7 +2101,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2117,7 +2133,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2149,7 +2165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2181,7 +2197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2216,7 +2232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2248,7 +2264,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2283,7 +2299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2315,7 +2331,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2346,11 +2362,11 @@
       <c r="J48" t="s">
         <v>67</v>
       </c>
-      <c r="L48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L48" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2382,7 +2398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2414,10 +2430,10 @@
         <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2449,10 +2465,10 @@
         <v>68</v>
       </c>
       <c r="L51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2484,7 +2500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2516,7 +2532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2551,7 +2567,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2583,10 +2599,10 @@
         <v>67</v>
       </c>
       <c r="K55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190845DC-7CF8-4CC7-AF86-B9CC36DBE6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC7CF3-4AE2-42DE-BD7D-23E77F396A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -377,6 +377,19 @@
   </si>
   <si>
     <t>https://tcpros.co/QDYsV</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>dine will be taken to court in a week</t>
+  </si>
+  <si>
+    <t>LESA,Government</t>
+  </si>
+  <si>
+    <t>https://www.independent.com.mt/articles/2021-08-08/local-news/Scam-alert-LESA-warns-of-fake-messages-6736235828
+https://timesofmalta.com/articles/view/scammers-now-turn-to-lesa.892225</t>
   </si>
 </sst>
 </file>
@@ -712,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2605,6 +2618,41 @@
         <v>110</v>
       </c>
     </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="4">
+        <v>44417</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>116</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>117</v>
+      </c>
+      <c r="J56" t="s">
+        <v>118</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC7CF3-4AE2-42DE-BD7D-23E77F396A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61723F2-BB1D-4BDC-9B20-0D845BCB43E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,9 +360,6 @@
     <t>https://watson.pe/onlineBov/</t>
   </si>
   <si>
-    <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/story.php?story_fbid=4377523138997877&amp;id=488536334563263</t>
   </si>
   <si>
@@ -390,6 +387,10 @@
   <si>
     <t>https://www.independent.com.mt/articles/2021-08-08/local-news/Scam-alert-LESA-warns-of-fake-messages-6736235828
 https://timesofmalta.com/articles/view/scammers-now-turn-to-lesa.892225</t>
+  </si>
+  <si>
+    <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php
+https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/</t>
   </si>
 </sst>
 </file>
@@ -728,10 +729,10 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +748,7 @@
     <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="122.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="110.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
         <v>78</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1272,7 +1273,7 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1852,7 +1853,7 @@
         <v>68</v>
       </c>
       <c r="L32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2376,7 +2377,7 @@
         <v>67</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2580,7 +2581,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2612,10 +2613,10 @@
         <v>67</v>
       </c>
       <c r="K55" t="s">
-        <v>111</v>
-      </c>
-      <c r="L55" t="s">
         <v>110</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2635,7 +2636,7 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -2644,13 +2645,13 @@
         <v>11</v>
       </c>
       <c r="I56" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" t="s">
         <v>117</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61723F2-BB1D-4BDC-9B20-0D845BCB43E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF76D56-70EE-438D-8458-3A4CC0038210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -364,10 +364,6 @@
   </si>
   <si>
     <t>redirectsto</t>
-  </si>
-  <si>
-    <t>https://www.restaurant-apron.at/wp-admin/network/-/
-https://certifikatvaccin-gov-mt-sophiechappot211321.codeanyapp.com/mtxx/</t>
   </si>
   <si>
     <t>https://trackingmalta.pro/BOV/bov/bov/</t>
@@ -391,6 +387,14 @@
   <si>
     <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php
 https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/</t>
+  </si>
+  <si>
+    <t>https://www.restaurant-apron.at/wp-admin/network/-/
+https://certifikatvaccin-gov-mt-sophiechappot211321.codeanyapp.com/mtxx/
+https://www.autorepar.com.br/wp-admin/images/--/</t>
+  </si>
+  <si>
+    <t>https://www.tvm.com.mt/en/news/watch-out-for-deceitful-message-about-covid-19/</t>
   </si>
 </sst>
 </file>
@@ -729,10 +733,10 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1277,7 @@
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1853,7 +1857,7 @@
         <v>68</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2345,7 +2349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2376,8 +2380,11 @@
       <c r="J48" t="s">
         <v>67</v>
       </c>
+      <c r="K48" t="s">
+        <v>120</v>
+      </c>
       <c r="L48" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2616,7 +2623,7 @@
         <v>110</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2636,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -2645,13 +2652,13 @@
         <v>11</v>
       </c>
       <c r="I56" t="s">
+        <v>115</v>
+      </c>
+      <c r="J56" t="s">
         <v>116</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF76D56-70EE-438D-8458-3A4CC0038210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D903A0-D5E9-4955-8DC3-1C3BDCBE880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -730,13 +730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,6 +2661,38 @@
         <v>117</v>
       </c>
     </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4">
+        <v>44417</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D903A0-D5E9-4955-8DC3-1C3BDCBE880F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E4150-BCE3-4872-A630-2C31F2E38B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="122">
   <si>
     <t>id</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>https://www.tvm.com.mt/en/news/watch-out-for-deceitful-message-about-covid-19/</t>
+  </si>
+  <si>
+    <t>click to claim win</t>
   </si>
 </sst>
 </file>
@@ -730,13 +733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,6 +2696,38 @@
         <v>65</v>
       </c>
     </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="4">
+        <v>44417</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>121</v>
+      </c>
+      <c r="J58" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E4150-BCE3-4872-A630-2C31F2E38B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0666EFF-C041-4128-958B-78B2FBDDD451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,6 @@
 https://timesofmalta.com/articles/view/scammers-now-turn-to-lesa.892225</t>
   </si>
   <si>
-    <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php
-https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/</t>
-  </si>
-  <si>
     <t>https://www.restaurant-apron.at/wp-admin/network/-/
 https://certifikatvaccin-gov-mt-sophiechappot211321.codeanyapp.com/mtxx/
 https://www.autorepar.com.br/wp-admin/images/--/</t>
@@ -398,6 +394,11 @@
   </si>
   <si>
     <t>click to claim win</t>
+  </si>
+  <si>
+    <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php
+https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/
+https://zelfstandigeadviseurs.nl/wp-content/themes/twentytwentyone/-/</t>
   </si>
 </sst>
 </file>
@@ -736,29 +737,29 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K58" sqref="K58"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="122.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="110.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="122.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="110.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,7 +797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -831,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -866,7 +867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -901,7 +902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -933,7 +934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -968,7 +969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1175,7 +1176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1318,7 +1319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2384,13 +2385,13 @@
         <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2591,7 +2592,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2626,10 +2627,10 @@
         <v>110</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J58" t="s">
         <v>73</v>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0666EFF-C041-4128-958B-78B2FBDDD451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FC11B-31EE-44A8-9BF2-CECE46ACEBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,15 +390,16 @@
 https://www.autorepar.com.br/wp-admin/images/--/</t>
   </si>
   <si>
-    <t>https://www.tvm.com.mt/en/news/watch-out-for-deceitful-message-about-covid-19/</t>
-  </si>
-  <si>
     <t>click to claim win</t>
   </si>
   <si>
     <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php
 https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/
 https://zelfstandigeadviseurs.nl/wp-content/themes/twentytwentyone/-/</t>
+  </si>
+  <si>
+    <t>https://www.tvm.com.mt/en/news/watch-out-for-deceitful-message-about-covid-19/
+https://www.facebook.com/101043071614245/posts/389400936111789/</t>
   </si>
 </sst>
 </file>
@@ -737,10 +738,10 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2364,7 +2365,7 @@
         <v>44389</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -2384,8 +2385,8 @@
       <c r="J48" t="s">
         <v>67</v>
       </c>
-      <c r="K48" t="s">
-        <v>119</v>
+      <c r="K48" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>118</v>
@@ -2627,7 +2628,7 @@
         <v>110</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -2723,7 +2724,7 @@
         <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J58" t="s">
         <v>73</v>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161FC11B-31EE-44A8-9BF2-CECE46ACEBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E95153-B2EB-4620-A874-43DC7F6995E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$58</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -400,6 +400,12 @@
   <si>
     <t>https://www.tvm.com.mt/en/news/watch-out-for-deceitful-message-about-covid-19/
 https://www.facebook.com/101043071614245/posts/389400936111789/</t>
+  </si>
+  <si>
+    <t>https://tooestt.com/wp-admin/includes/-/ib/</t>
+  </si>
+  <si>
+    <t>banking account suspicious activity</t>
   </si>
 </sst>
 </file>
@@ -735,13 +741,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2730,8 +2736,43 @@
         <v>73</v>
       </c>
     </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44422</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31E4150-BCE3-4872-A630-2C31F2E38B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC4A64B-9349-42FC-BE1E-3CD589DE3B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,10 +385,6 @@
 https://timesofmalta.com/articles/view/scammers-now-turn-to-lesa.892225</t>
   </si>
   <si>
-    <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php
-https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/</t>
-  </si>
-  <si>
     <t>https://www.restaurant-apron.at/wp-admin/network/-/
 https://certifikatvaccin-gov-mt-sophiechappot211321.codeanyapp.com/mtxx/
 https://www.autorepar.com.br/wp-admin/images/--/</t>
@@ -398,6 +394,11 @@
   </si>
   <si>
     <t>click to claim win</t>
+  </si>
+  <si>
+    <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php
+https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/
+https://fhi.vrcmsportal.com/player/-/</t>
   </si>
 </sst>
 </file>
@@ -736,10 +737,10 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K58" sqref="K58"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,10 +2385,10 @@
         <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2626,7 +2627,7 @@
         <v>110</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2722,7 +2723,7 @@
         <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J58" t="s">
         <v>73</v>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC4A64B-9349-42FC-BE1E-3CD589DE3B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F18F1E-2606-48BF-8EB1-CE0E37A28E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,6 +398,7 @@
   <si>
     <t>https://dhl-mt-cliint-srvscs-soynius-rfiid-delivery-sophiechappot211321.codeanyapp.com/mtxx/index1.php
 https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/
+https://zelfstandigeadviseurs.nl/wp-content/themes/twentytwentyone/-/
 https://fhi.vrcmsportal.com/player/-/</t>
   </si>
 </sst>
@@ -740,7 +741,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F18F1E-2606-48BF-8EB1-CE0E37A28E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126494B7-1418-4B66-BB1C-1C3442A64249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -400,6 +400,15 @@
 https://certifikatvaccin-gov-residents-ofmaltaonly-yakuzablyat101350359.codeanyapp.com/online/
 https://zelfstandigeadviseurs.nl/wp-content/themes/twentytwentyone/-/
 https://fhi.vrcmsportal.com/player/-/</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>invoice to be paid</t>
+  </si>
+  <si>
+    <t>https://www.tvm.com.mt/en/news/watch-out-for-fraudulent-emails-requesting-payment-of-melita-bill/</t>
   </si>
 </sst>
 </file>
@@ -735,32 +744,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L55" sqref="L55"/>
+      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="122.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="110.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" customWidth="1"/>
+    <col min="11" max="11" width="122.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="110.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -798,7 +807,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -833,7 +842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -868,7 +877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -903,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -935,7 +944,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -970,7 +979,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1212,7 +1221,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1285,7 +1294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1355,7 +1364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1460,7 +1469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1530,7 +1539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1562,7 +1571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1664,7 +1673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1699,7 +1708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1798,7 +1807,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2092,7 +2101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2124,7 +2133,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2156,7 +2165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2255,7 +2264,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2287,7 +2296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2392,7 +2401,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2494,7 +2503,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2526,7 +2535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2631,7 +2640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2666,7 +2675,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2728,6 +2737,41 @@
       </c>
       <c r="J58" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44426</v>
+      </c>
+      <c r="D59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59" t="s">
+        <v>70</v>
+      </c>
+      <c r="K59" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Documents\github\malta-phishing-samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126494B7-1418-4B66-BB1C-1C3442A64249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428F750-64DB-4AB2-92A2-747BF6C32128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1035" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>fine</t>
-  </si>
-  <si>
-    <t>dine will be taken to court in a week</t>
   </si>
   <si>
     <t>LESA,Government</t>
@@ -409,6 +406,18 @@
   </si>
   <si>
     <t>https://www.tvm.com.mt/en/news/watch-out-for-fraudulent-emails-requesting-payment-of-melita-bill/</t>
+  </si>
+  <si>
+    <t>fine will be taken to court in a week</t>
+  </si>
+  <si>
+    <t>fine to be paid today</t>
+  </si>
+  <si>
+    <t>LESA</t>
+  </si>
+  <si>
+    <t>https://www.behnaz-seirafi.com/wp-admin/user/-/</t>
   </si>
 </sst>
 </file>
@@ -744,32 +753,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" customWidth="1"/>
-    <col min="11" max="11" width="122.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="110.54296875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="122.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="110.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,7 +816,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -842,7 +851,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -877,7 +886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -912,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -944,7 +953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -979,7 +988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1046,7 +1055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1081,7 +1090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1221,7 +1230,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1294,7 +1303,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1469,7 +1478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1504,7 +1513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1539,7 +1548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1673,7 +1682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1708,7 +1717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1839,7 +1848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1874,7 +1883,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2069,7 +2078,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2101,7 +2110,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2165,7 +2174,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2264,7 +2273,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2363,7 +2372,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2395,13 +2404,13 @@
         <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2433,7 +2442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2535,7 +2544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2567,7 +2576,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2637,10 +2646,10 @@
         <v>110</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2666,16 +2675,16 @@
         <v>11</v>
       </c>
       <c r="I56" t="s">
+        <v>124</v>
+      </c>
+      <c r="J56" t="s">
         <v>115</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2707,7 +2716,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2733,13 +2742,13 @@
         <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J58" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2756,22 +2765,57 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
         <v>122</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" t="s">
-        <v>123</v>
       </c>
       <c r="J59" t="s">
         <v>70</v>
       </c>
       <c r="K59" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44427</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>125</v>
+      </c>
+      <c r="J60" t="s">
+        <v>126</v>
+      </c>
+      <c r="L60" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428F750-64DB-4AB2-92A2-747BF6C32128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD97AFB-5726-41EB-883C-EDECDB8F3CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1035" windowWidth="17745" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -418,6 +418,15 @@
   </si>
   <si>
     <t>https://www.behnaz-seirafi.com/wp-admin/user/-/</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>suspicious activity detected</t>
+  </si>
+  <si>
+    <t>https://tooestt.com/wp-admin/includes/-/ib/</t>
   </si>
 </sst>
 </file>
@@ -753,13 +762,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,28 +2768,28 @@
         <v>44426</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
       </c>
       <c r="I59" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="J59" t="s">
-        <v>70</v>
-      </c>
-      <c r="K59" t="s">
-        <v>123</v>
+        <v>68</v>
+      </c>
+      <c r="L59" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2816,6 +2825,41 @@
       </c>
       <c r="L60" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="4">
+        <v>44426</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
+        <v>122</v>
+      </c>
+      <c r="J61" t="s">
+        <v>70</v>
+      </c>
+      <c r="K61" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD97AFB-5726-41EB-883C-EDECDB8F3CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA13A2-5853-48BA-998A-08E84443CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -427,6 +427,12 @@
   </si>
   <si>
     <t>https://tooestt.com/wp-admin/includes/-/ib/</t>
+  </si>
+  <si>
+    <t>fine to be paid</t>
+  </si>
+  <si>
+    <t>https://online-verification-submission-fazrisaysoaus704905.codeanyapp.com/mt/</t>
   </si>
 </sst>
 </file>
@@ -762,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L59" sqref="L59"/>
+      <selection pane="bottomRight" activeCell="L61" sqref="A1:L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,6 +2867,41 @@
       <c r="K61" t="s">
         <v>123</v>
       </c>
+      <c r="L61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44442</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>131</v>
+      </c>
+      <c r="J62" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BA13A2-5853-48BA-998A-08E84443CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9630B9E0-4D38-47B5-9AFA-541ACAABE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$63</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>account blocked</t>
-  </si>
-  <si>
-    <t>mailbox full, link to https://officcmail.weebly.com/</t>
   </si>
   <si>
     <t>opportunity</t>
@@ -433,6 +430,21 @@
   </si>
   <si>
     <t>https://online-verification-submission-fazrisaysoaus704905.codeanyapp.com/mt/</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>mailbox full, click to add mb</t>
+  </si>
+  <si>
+    <t>https://microsofotwarning2021.weebly.com/</t>
+  </si>
+  <si>
+    <t>mailbox full, link to follow</t>
+  </si>
+  <si>
+    <t>https://officcmail.weebly.com/</t>
   </si>
 </sst>
 </file>
@@ -768,13 +780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L61" sqref="A1:L62"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,13 +819,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -822,13 +834,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -836,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4">
         <v>44363</v>
@@ -860,7 +872,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -871,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4">
         <v>44363</v>
@@ -895,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -906,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4">
         <v>44364</v>
@@ -930,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
@@ -965,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -973,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4">
         <v>44376</v>
@@ -997,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1008,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4">
         <v>44379</v>
@@ -1029,10 +1041,10 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1064,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>27</v>
@@ -1099,7 +1111,7 @@
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>27</v>
@@ -1134,7 +1146,7 @@
         <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>27</v>
@@ -1145,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4">
         <v>44379</v>
@@ -1169,7 +1181,7 @@
         <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>27</v>
@@ -1180,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4">
         <v>44379</v>
@@ -1204,7 +1216,7 @@
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>27</v>
@@ -1215,7 +1227,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
         <v>44379</v>
@@ -1239,10 +1251,10 @@
         <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1250,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4">
         <v>44379</v>
@@ -1274,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
@@ -1285,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4">
         <v>44379</v>
@@ -1309,13 +1321,13 @@
         <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1323,7 +1335,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4">
         <v>44379</v>
@@ -1347,7 +1359,7 @@
         <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>27</v>
@@ -1358,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="4">
         <v>44379</v>
@@ -1382,7 +1394,7 @@
         <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>27</v>
@@ -1417,7 +1429,7 @@
         <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s">
         <v>33</v>
@@ -1428,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4">
         <v>44379</v>
@@ -1449,10 +1461,10 @@
         <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" t="s">
         <v>32</v>
@@ -1463,7 +1475,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4">
         <v>44379</v>
@@ -1487,7 +1499,7 @@
         <v>37</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
         <v>36</v>
@@ -1522,7 +1534,7 @@
         <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
         <v>40</v>
@@ -1557,7 +1569,7 @@
         <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
         <v>42</v>
@@ -1589,10 +1601,13 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
+      </c>
+      <c r="L23" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1612,19 +1627,19 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
         <v>45</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
       <c r="J24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1653,13 +1668,13 @@
         <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1667,7 +1682,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="4">
         <v>44379</v>
@@ -1688,13 +1703,13 @@
         <v>11</v>
       </c>
       <c r="I26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s">
         <v>49</v>
-      </c>
-      <c r="J26" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1723,13 +1738,13 @@
         <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1737,7 +1752,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4">
         <v>44380</v>
@@ -1758,13 +1773,13 @@
         <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,7 +1787,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="4">
         <v>44380</v>
@@ -1793,10 +1808,10 @@
         <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1816,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -1825,10 +1840,10 @@
         <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1836,7 +1851,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="4">
         <v>44380</v>
@@ -1857,10 +1872,10 @@
         <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1868,7 +1883,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="4">
         <v>44380</v>
@@ -1892,10 +1907,10 @@
         <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1903,7 +1918,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="4">
         <v>44380</v>
@@ -1924,10 +1939,10 @@
         <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1935,7 +1950,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="4">
         <v>44380</v>
@@ -1956,10 +1971,10 @@
         <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1991,7 +2006,7 @@
         <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1999,7 +2014,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="4">
         <v>44383</v>
@@ -2020,10 +2035,10 @@
         <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2031,7 +2046,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="4">
         <v>44383</v>
@@ -2052,10 +2067,10 @@
         <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2063,7 +2078,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4">
         <v>44383</v>
@@ -2084,13 +2099,13 @@
         <v>11</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2098,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4">
         <v>44384</v>
@@ -2122,7 +2137,7 @@
         <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2151,10 +2166,10 @@
         <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2162,7 +2177,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="4">
         <v>44384</v>
@@ -2174,7 +2189,7 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
@@ -2183,10 +2198,10 @@
         <v>11</v>
       </c>
       <c r="I41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" t="s">
         <v>90</v>
-      </c>
-      <c r="J41" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2194,7 +2209,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="4">
         <v>44384</v>
@@ -2215,10 +2230,10 @@
         <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2247,10 +2262,10 @@
         <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2258,7 +2273,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4">
         <v>44384</v>
@@ -2279,13 +2294,13 @@
         <v>31</v>
       </c>
       <c r="I44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" t="s">
+        <v>61</v>
+      </c>
+      <c r="K44" t="s">
         <v>92</v>
-      </c>
-      <c r="J44" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2293,7 +2308,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="4">
         <v>44385</v>
@@ -2314,10 +2329,10 @@
         <v>11</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2325,7 +2340,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4">
         <v>44385</v>
@@ -2346,13 +2361,13 @@
         <v>11</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2360,7 +2375,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4">
         <v>44385</v>
@@ -2381,10 +2396,10 @@
         <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2392,7 +2407,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="4">
         <v>44389</v>
@@ -2404,7 +2419,7 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -2413,16 +2428,16 @@
         <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2430,7 +2445,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4">
         <v>44389</v>
@@ -2451,10 +2466,10 @@
         <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2462,7 +2477,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="4">
         <v>44390</v>
@@ -2483,13 +2498,13 @@
         <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J50" t="s">
         <v>16</v>
       </c>
       <c r="L50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2497,7 +2512,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4">
         <v>44391</v>
@@ -2518,13 +2533,13 @@
         <v>11</v>
       </c>
       <c r="I51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,7 +2547,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="4">
         <v>44403</v>
@@ -2553,10 +2568,10 @@
         <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2564,7 +2579,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="4">
         <v>44403</v>
@@ -2585,10 +2600,10 @@
         <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2617,13 +2632,13 @@
         <v>11</v>
       </c>
       <c r="I54" t="s">
+        <v>102</v>
+      </c>
+      <c r="J54" t="s">
         <v>103</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>104</v>
-      </c>
-      <c r="K54" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,7 +2646,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="4">
         <v>44408</v>
@@ -2643,7 +2658,7 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -2652,16 +2667,16 @@
         <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2669,7 +2684,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4">
         <v>44417</v>
@@ -2681,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -2690,13 +2705,13 @@
         <v>11</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J56" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2704,7 +2719,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="4">
         <v>44417</v>
@@ -2728,7 +2743,7 @@
         <v>19</v>
       </c>
       <c r="J57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2757,10 +2772,10 @@
         <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2780,7 +2795,7 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -2789,13 +2804,13 @@
         <v>11</v>
       </c>
       <c r="I59" t="s">
+        <v>128</v>
+      </c>
+      <c r="J59" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" t="s">
         <v>129</v>
-      </c>
-      <c r="J59" t="s">
-        <v>68</v>
-      </c>
-      <c r="L59" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2803,7 +2818,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4">
         <v>44427</v>
@@ -2815,7 +2830,7 @@
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -2824,13 +2839,13 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" t="s">
         <v>125</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>126</v>
-      </c>
-      <c r="L60" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2850,25 +2865,25 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" t="s">
         <v>121</v>
       </c>
-      <c r="G61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" t="s">
         <v>122</v>
       </c>
-      <c r="J61" t="s">
-        <v>70</v>
-      </c>
-      <c r="K61" t="s">
-        <v>123</v>
-      </c>
       <c r="L61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2876,7 +2891,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="4">
         <v>44442</v>
@@ -2888,7 +2903,7 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -2897,14 +2912,49 @@
         <v>11</v>
       </c>
       <c r="I62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J62" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="4">
+        <v>44463</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
+        <v>133</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K63" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9630B9E0-4D38-47B5-9AFA-541ACAABE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D7129-272A-4CB6-B846-4CE2290409EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -432,9 +432,6 @@
     <t>https://online-verification-submission-fazrisaysoaus704905.codeanyapp.com/mt/</t>
   </si>
   <si>
-    <t>em</t>
-  </si>
-  <si>
     <t>mailbox full, click to add mb</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>https://officcmail.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://maltapost.sessionuser.online/</t>
   </si>
 </sst>
 </file>
@@ -780,13 +780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,13 +1601,13 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2938,19 +2938,54 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" t="s">
         <v>132</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>133</v>
       </c>
       <c r="J63" t="s">
         <v>16</v>
       </c>
       <c r="L63" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="4">
+        <v>44478</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>97</v>
+      </c>
+      <c r="J64" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/samples-details.xlsx
+++ b/samples-details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\mcast\malta-phishing-samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D7129-272A-4CB6-B846-4CE2290409EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D021E8EC-616D-45BC-9E66-6EF0A660C86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="137">
   <si>
     <t>id</t>
   </si>
@@ -444,7 +444,7 @@
     <t>https://officcmail.weebly.com/</t>
   </si>
   <si>
-    <t>https://maltapost.sessionuser.online/</t>
+    <t>https://c3.express.viettincorp/us/en/home.html</t>
   </si>
 </sst>
 </file>
@@ -780,13 +780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K60" sqref="K60"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2967,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -2982,10 +2982,42 @@
         <v>97</v>
       </c>
       <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="L64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="K64" t="s">
-        <v>136</v>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="4">
+        <v>44478</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
